--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_6.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,327 +32,333 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="107">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1_input_valid_6</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_mean</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscCompInhibIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="109">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1_input_valid_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -360,7 +366,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -443,13 +449,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -485,15 +495,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,62 +538,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -591,21 +601,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -620,35 +638,35 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -665,7 +683,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -682,7 +700,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -699,7 +717,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -716,7 +734,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -733,7 +751,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -751,7 +769,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -766,32 +784,32 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -805,7 +823,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -819,7 +837,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -833,7 +851,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -847,7 +865,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -861,7 +879,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -875,7 +893,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -889,7 +907,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -903,7 +921,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -917,7 +935,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -931,7 +949,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -945,7 +963,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -959,7 +977,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -974,7 +992,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -989,29 +1007,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A5:B5 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1022,7 +1040,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1033,7 +1051,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1044,7 +1062,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1055,7 +1073,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1066,7 +1084,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1077,7 +1095,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1088,7 +1106,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1099,7 +1117,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1110,7 +1128,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1121,7 +1139,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1132,7 +1150,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1143,7 +1161,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1154,7 +1172,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1165,7 +1183,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1176,7 +1194,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1187,7 +1205,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1198,7 +1216,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1209,7 +1227,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1220,7 +1238,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1232,7 +1250,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1247,74 +1265,74 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A5:B5 L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1325,19 +1343,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1348,22 +1366,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1374,16 +1392,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1394,19 +1412,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1417,22 +1435,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1443,10 +1461,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1457,10 +1475,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1471,10 +1489,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1485,10 +1503,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1499,10 +1517,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1513,10 +1531,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1527,10 +1545,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1542,7 +1560,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1557,83 +1575,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1698,7 +1716,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1763,7 +1781,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1828,7 +1846,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1893,7 +1911,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1958,7 +1976,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2023,7 +2041,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2088,7 +2106,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2153,7 +2171,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2218,7 +2236,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2283,7 +2301,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2348,7 +2366,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2413,7 +2431,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2479,7 +2497,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2494,41 +2512,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2545,10 +2563,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2565,10 +2583,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2585,10 +2603,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2605,10 +2623,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2625,10 +2643,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2645,10 +2663,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2665,10 +2683,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2685,10 +2703,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2705,10 +2723,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2725,10 +2743,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2745,10 +2763,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2765,10 +2783,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2785,10 +2803,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2805,10 +2823,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2825,10 +2843,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2845,10 +2863,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2865,10 +2883,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2885,10 +2903,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2905,10 +2923,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2926,7 +2944,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2941,38 +2959,38 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2983,10 +3001,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2997,10 +3015,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3011,10 +3029,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3025,10 +3043,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3039,10 +3057,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3053,10 +3071,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3067,10 +3085,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3081,10 +3099,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3095,10 +3113,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3109,10 +3127,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3123,10 +3141,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3137,10 +3155,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3152,7 +3170,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3167,89 +3185,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3264,124 +3282,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3396,124 +3414,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3528,29 +3546,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3561,7 +3579,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3572,7 +3590,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3583,7 +3601,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3594,7 +3612,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3605,7 +3623,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3616,7 +3634,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3627,7 +3645,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3638,7 +3656,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3649,7 +3667,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3660,7 +3678,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3671,7 +3689,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3682,7 +3700,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3694,7 +3712,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3709,29 +3727,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3742,7 +3760,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3753,7 +3771,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3764,7 +3782,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3775,7 +3793,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3786,7 +3804,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3797,7 +3815,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3808,7 +3826,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3819,7 +3837,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3830,7 +3848,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3841,7 +3859,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3852,7 +3870,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3863,7 +3881,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3874,7 +3892,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3885,7 +3903,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3896,7 +3914,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3907,7 +3925,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3918,7 +3936,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3929,7 +3947,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3940,7 +3958,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3952,7 +3970,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_6.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_6.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1_input_valid_6</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -495,10 +477,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -514,8 +496,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -523,15 +505,15 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -590,6 +572,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -599,27 +584,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -639,7 +606,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B3 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -649,24 +616,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -683,7 +650,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -700,7 +667,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -717,7 +684,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -734,7 +701,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -751,7 +718,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -785,7 +752,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -795,21 +762,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -823,7 +790,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -837,7 +804,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -851,7 +818,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -865,7 +832,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -879,7 +846,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -893,7 +860,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -907,7 +874,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -921,7 +888,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -935,7 +902,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -949,7 +916,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -963,7 +930,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -977,7 +944,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1008,7 +975,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A5:B5 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1018,18 +985,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1040,7 +1007,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1051,7 +1018,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1062,7 +1029,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1073,7 +1040,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1084,7 +1051,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1095,7 +1062,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1106,7 +1073,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1117,7 +1084,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1128,7 +1095,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1139,7 +1106,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1150,7 +1117,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1161,7 +1128,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1172,7 +1139,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1183,7 +1150,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1194,7 +1161,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1205,7 +1172,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1216,7 +1183,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1227,7 +1194,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1238,7 +1205,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1266,7 +1233,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A5:B5 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="B3 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1275,64 +1242,64 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1343,19 +1310,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1366,22 +1333,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1392,16 +1359,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1412,19 +1379,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1435,22 +1402,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1461,10 +1428,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1475,10 +1442,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1489,10 +1456,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1503,10 +1470,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1517,10 +1484,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1531,10 +1498,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1545,10 +1512,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1576,7 +1543,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1586,72 +1553,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1716,7 +1683,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1781,7 +1748,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1846,7 +1813,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1911,7 +1878,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1976,7 +1943,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2041,7 +2008,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2106,7 +2073,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2171,7 +2138,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2236,7 +2203,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2301,7 +2268,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2366,7 +2333,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2431,7 +2398,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2510,434 +2477,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2957,214 +2799,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
+      <selection pane="topLeft" activeCell="M19" activeCellId="1" sqref="B3 M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3186,7 +2987,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3196,72 +2997,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3283,7 +3084,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3293,107 +3094,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3415,7 +3216,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3425,107 +3226,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3348,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3557,18 +3358,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3579,7 +3380,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3590,7 +3391,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3601,7 +3402,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3612,7 +3413,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3623,7 +3424,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3634,7 +3435,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3645,7 +3446,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3656,7 +3457,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3667,7 +3468,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3678,7 +3479,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3689,7 +3490,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3700,7 +3501,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3728,7 +3529,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3738,18 +3539,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3760,7 +3561,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3771,7 +3572,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3782,7 +3583,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3793,7 +3594,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3804,7 +3605,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3815,7 +3616,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3826,7 +3627,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3837,7 +3638,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3848,7 +3649,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3859,7 +3660,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3870,7 +3671,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3881,7 +3682,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3892,7 +3693,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3903,7 +3704,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3914,7 +3715,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3925,7 +3726,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3936,7 +3737,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3947,7 +3748,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3958,7 +3759,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_6.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_6.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -533,7 +533,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,7 +606,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B3 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -752,7 +752,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -975,7 +975,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="B3 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2480,7 +2480,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2802,7 +2802,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M19" activeCellId="1" sqref="B3 M19"/>
+      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2987,7 +2987,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3084,7 +3084,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3216,7 +3216,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3348,7 +3348,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3529,7 +3529,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_6.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="102">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -444,12 +441,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -479,7 +476,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -616,19 +613,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,16 +759,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,13 +982,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,40 +1246,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,13 +1287,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>88</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1313,16 +1310,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1336,16 +1333,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>96</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1362,13 +1359,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1382,16 +1379,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1405,16 +1402,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>96</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>26</v>
@@ -1431,7 +1428,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1445,7 +1442,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1459,7 +1456,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1473,7 +1470,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1487,7 +1484,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1501,7 +1498,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1515,7 +1512,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2477,16 +2474,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,21 +2496,15 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2521,13 +2512,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2535,13 +2523,10 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2549,13 +2534,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2563,111 +2545,87 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2675,13 +2633,10 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2689,13 +2644,10 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2703,13 +2655,10 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2717,13 +2666,10 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2731,13 +2677,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2745,13 +2688,10 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2759,13 +2699,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2773,13 +2710,10 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2816,20 +2750,20 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2840,7 +2774,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2851,7 +2785,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2862,7 +2796,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2873,7 +2807,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -2884,7 +2818,7 @@
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -2895,7 +2829,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2906,7 +2840,7 @@
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -2917,7 +2851,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -2928,7 +2862,7 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -2939,7 +2873,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -2950,7 +2884,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -2961,7 +2895,7 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -3094,7 +3028,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,7 +3160,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,13 +3292,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3539,13 +3473,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_6.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_6.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="102">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -600,152 +599,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -964,7 +817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1222,7 +1075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2476,7 +2329,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2918,9 +2771,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2931,72 +2784,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3147,138 +3035,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3455,7 +3211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3711,4 +3467,150 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_6.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -475,8 +475,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -529,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2773,7 +2773,7 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_6.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_6.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="105">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -427,7 +436,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -438,6 +447,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -476,7 +489,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -524,64 +537,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -602,7 +629,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -612,21 +639,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -640,7 +667,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -654,7 +681,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -668,7 +695,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -682,7 +709,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -696,7 +723,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -710,7 +737,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -724,7 +751,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -738,7 +765,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -752,7 +779,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -766,7 +793,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -780,7 +807,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -794,7 +821,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -825,7 +852,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -835,18 +862,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -857,7 +884,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -868,7 +895,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -879,7 +906,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -890,7 +917,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -901,7 +928,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -912,7 +939,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -923,7 +950,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -934,7 +961,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -945,7 +972,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -956,7 +983,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -967,7 +994,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -978,7 +1005,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -989,7 +1016,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1000,7 +1027,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1011,7 +1038,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1022,7 +1049,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1033,7 +1060,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1044,7 +1071,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1055,7 +1082,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1083,7 +1110,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A6:B7 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1099,57 +1126,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1160,19 +1187,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1183,22 +1210,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1209,16 +1236,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1229,19 +1256,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1252,22 +1279,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1278,10 +1305,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1292,10 +1319,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1306,10 +1333,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1320,10 +1347,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1334,10 +1361,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1348,10 +1375,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1362,10 +1389,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1393,7 +1420,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1403,72 +1430,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1533,7 +1560,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1598,7 +1625,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1663,7 +1690,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1728,7 +1755,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1793,7 +1820,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1858,7 +1885,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1923,7 +1950,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1988,7 +2015,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2053,7 +2080,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2118,7 +2145,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2183,7 +2210,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2248,7 +2275,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2330,7 +2357,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2341,21 +2368,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2363,10 +2390,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2374,10 +2401,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2385,10 +2412,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2396,10 +2423,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2407,10 +2434,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2418,10 +2445,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2429,10 +2456,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2440,10 +2467,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2451,10 +2478,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2462,10 +2489,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2473,10 +2500,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2484,10 +2511,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2495,10 +2522,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2506,10 +2533,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2517,10 +2544,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2528,10 +2555,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2539,10 +2566,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2550,10 +2577,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2561,10 +2588,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2589,7 +2616,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
+      <selection pane="topLeft" activeCell="M19" activeCellId="1" sqref="A6:B7 M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2600,24 +2627,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2625,10 +2652,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2636,10 +2663,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2647,10 +2674,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2658,10 +2685,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2669,10 +2696,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2680,10 +2707,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2691,10 +2718,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2702,10 +2729,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2713,10 +2740,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2724,10 +2751,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2735,10 +2762,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2746,10 +2773,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2774,7 +2801,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2784,107 +2811,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2933,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2916,107 +2943,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3038,7 +3065,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3048,18 +3075,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3070,7 +3097,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3081,7 +3108,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3092,7 +3119,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3103,7 +3130,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3114,7 +3141,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3125,7 +3152,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3136,7 +3163,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3147,7 +3174,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3158,7 +3185,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3169,7 +3196,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3180,7 +3207,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3191,7 +3218,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3219,7 +3246,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3229,18 +3256,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3251,7 +3278,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3262,7 +3289,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3273,7 +3300,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3284,7 +3311,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3295,7 +3322,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3306,7 +3333,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3317,7 +3344,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3328,7 +3355,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3339,7 +3366,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3350,7 +3377,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3361,7 +3388,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3372,7 +3399,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3383,7 +3410,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3394,7 +3421,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3405,7 +3432,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3416,7 +3443,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3427,7 +3454,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3438,7 +3465,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3449,7 +3476,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3477,7 +3504,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A6:B7 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3487,24 +3514,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3521,7 +3548,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3538,7 +3565,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3555,7 +3582,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3572,7 +3599,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3589,7 +3616,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
